--- a/IdentifyNewBikesHackathon/Outputs/UpcomingBikesDetails.xlsx
+++ b/IdentifyNewBikesHackathon/Outputs/UpcomingBikesDetails.xlsx
@@ -38,7 +38,7 @@
     <t>230000</t>
   </si>
   <si>
-    <t>May 2022</t>
+    <t>20 May 2022</t>
   </si>
   <si>
     <t>Honda PCX160</t>
@@ -142,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,7 +150,7 @@
   <cols>
     <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.7265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
